--- a/6mm/GoniostatSettings.xlsx
+++ b/6mm/GoniostatSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cadd\RoseEngine\SharpeningJigs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2704913-AA88-49EF-83E2-5B089A82020A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF1E126-0353-499E-800C-1DE0D74E7C6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36735" yWindow="2400" windowWidth="21870" windowHeight="12795" xr2:uid="{0C8CBD00-D381-4FD5-9038-BEAB5650882A}"/>
   </bookViews>
@@ -521,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0DD45CD-93F3-4064-B694-0B2224146421}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,6 +689,38 @@
         <v>61.23</v>
       </c>
     </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>135</v>
+      </c>
+      <c r="B6">
+        <v>35</v>
+      </c>
+      <c r="C6">
+        <v>1.5840000000000001</v>
+      </c>
+      <c r="D6">
+        <v>40.229999999999997</v>
+      </c>
+      <c r="E6">
+        <v>3.5950000000000002</v>
+      </c>
+      <c r="F6">
+        <v>91.32</v>
+      </c>
+      <c r="G6">
+        <v>1.4450000000000001</v>
+      </c>
+      <c r="H6">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="I6">
+        <v>2.6080000000000001</v>
+      </c>
+      <c r="J6">
+        <v>66.239999999999995</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>

--- a/6mm/GoniostatSettings.xlsx
+++ b/6mm/GoniostatSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cadd\RoseEngine\SharpeningJigs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF1E126-0353-499E-800C-1DE0D74E7C6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6E2428-6C50-42BD-BD38-9F533B31AD35}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36735" yWindow="2400" windowWidth="21870" windowHeight="12795" xr2:uid="{0C8CBD00-D381-4FD5-9038-BEAB5650882A}"/>
+    <workbookView xWindow="30495" yWindow="-120" windowWidth="27225" windowHeight="16440" xr2:uid="{0C8CBD00-D381-4FD5-9038-BEAB5650882A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Cutter</t>
   </si>
@@ -63,18 +63,6 @@
     <t>Inches</t>
   </si>
   <si>
-    <t>Inches2</t>
-  </si>
-  <si>
-    <t>Millimeters3</t>
-  </si>
-  <si>
-    <t>Inches4</t>
-  </si>
-  <si>
-    <t>Millimeters5</t>
-  </si>
-  <si>
     <t>Relief</t>
   </si>
 </sst>
@@ -82,10 +70,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -99,7 +95,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -108,12 +104,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -167,27 +181,84 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -205,23 +276,59 @@
 </styleSheet>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EE451C66-DDB9-4462-8374-2725BA0ECA1A}" name="Table2" displayName="Table2" ref="A2:J6" totalsRowShown="0">
-  <autoFilter ref="A2:J6" xr:uid="{0F624C07-542A-4F0B-AFF9-54B8FCF4DFB5}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{5A62073F-F8B4-41E8-85E2-D353DC7F3382}" name="Included Angle"/>
-    <tableColumn id="10" xr3:uid="{B15301D7-E4D8-46BB-8A2F-F2FE21518CC1}" name="Relief"/>
-    <tableColumn id="2" xr3:uid="{8412E1CC-2EDC-4487-995C-4A5EF7C2EB33}" name="Offset Inches"/>
-    <tableColumn id="3" xr3:uid="{3FC559B9-6D75-4F54-BB98-1D434763E8D5}" name="Offset Millimeters"/>
-    <tableColumn id="4" xr3:uid="{4F3BFD8E-F3D9-45AD-9EEC-923E7025379B}" name="Inches"/>
-    <tableColumn id="5" xr3:uid="{5A56AB41-1B0E-41DB-8BA9-B922057573EA}" name="Millimeters"/>
-    <tableColumn id="6" xr3:uid="{341FCC4A-4AF2-41C8-A358-9F14F865D735}" name="Inches2"/>
-    <tableColumn id="7" xr3:uid="{9FF5564E-C0E8-43DD-9A06-BA5CEFB5CA6D}" name="Millimeters3"/>
-    <tableColumn id="8" xr3:uid="{305DA57B-5D37-4636-BE76-F57B5981BA98}" name="Inches4"/>
-    <tableColumn id="9" xr3:uid="{3AEF0DDC-5037-4C0F-967C-FD7CA4A7A6D0}" name="Millimeters5"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>54310</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46DD2C77-85D0-434D-9E64-7ECE25DA1698}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1181100" y="1743075"/>
+          <a:ext cx="7772400" cy="4083385"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -521,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0DD45CD-93F3-4064-B694-0B2224146421}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,182 +649,246 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="4" t="s">
+      <c r="H1" s="4"/>
+      <c r="I1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="5"/>
+      <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" t="s">
-        <v>12</v>
+      <c r="G2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
         <v>60</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="11">
         <v>35</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="11">
         <v>1.988</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="11">
         <v>50.5</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="11">
         <v>1.24</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="11">
         <v>31.5</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="11">
         <v>1.016</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="11">
         <v>25.81</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="11">
         <v>1.3009999999999999</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="11">
         <v>33.049999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>90</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="12">
+        <v>75</v>
+      </c>
+      <c r="B4" s="1">
         <v>35</v>
       </c>
-      <c r="C4">
-        <v>1.744</v>
-      </c>
-      <c r="D4">
-        <v>44.3</v>
-      </c>
-      <c r="E4">
-        <v>2.0840000000000001</v>
-      </c>
-      <c r="F4">
-        <v>52.93</v>
-      </c>
-      <c r="G4">
-        <v>1.2374000000000001</v>
-      </c>
-      <c r="H4">
-        <v>31.43</v>
-      </c>
-      <c r="I4">
-        <v>1.952</v>
-      </c>
-      <c r="J4">
-        <v>49.59</v>
+      <c r="C4" s="1">
+        <v>1.7589999999999999</v>
+      </c>
+      <c r="D4" s="1">
+        <v>44.68</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.5009999999999999</v>
+      </c>
+      <c r="F4" s="1">
+        <v>38.119999999999997</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1.1060000000000001</v>
+      </c>
+      <c r="H4" s="1">
+        <v>28.08</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1.5740000000000001</v>
+      </c>
+      <c r="J4" s="1">
+        <v>39.979999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>120</v>
-      </c>
-      <c r="B5">
+      <c r="A5" s="13">
+        <v>90</v>
+      </c>
+      <c r="B5" s="7">
         <v>35</v>
       </c>
-      <c r="C5">
-        <v>1.601</v>
-      </c>
-      <c r="D5">
-        <v>40.67</v>
-      </c>
-      <c r="E5">
-        <v>3.3719999999999999</v>
-      </c>
-      <c r="F5">
-        <v>85.66</v>
-      </c>
-      <c r="G5">
-        <v>1.39</v>
-      </c>
-      <c r="H5">
-        <v>35.32</v>
-      </c>
-      <c r="I5">
-        <v>2.41</v>
-      </c>
-      <c r="J5">
-        <v>61.23</v>
+      <c r="C5" s="7">
+        <v>1.744</v>
+      </c>
+      <c r="D5" s="7">
+        <v>44.3</v>
+      </c>
+      <c r="E5" s="7">
+        <v>2.0840000000000001</v>
+      </c>
+      <c r="F5" s="7">
+        <v>52.93</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1.2374000000000001</v>
+      </c>
+      <c r="H5" s="7">
+        <v>31.43</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1.952</v>
+      </c>
+      <c r="J5" s="7">
+        <v>49.59</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="12">
+        <v>105</v>
+      </c>
+      <c r="B6" s="1">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.645</v>
+      </c>
+      <c r="D6" s="1">
+        <v>41.78</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2.5870000000000002</v>
+      </c>
+      <c r="F6" s="1">
+        <v>65.72</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1.3220000000000001</v>
+      </c>
+      <c r="H6" s="1">
+        <v>33.58</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2.1829999999999998</v>
+      </c>
+      <c r="J6" s="1">
+        <v>55.44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>120</v>
+      </c>
+      <c r="B7" s="7">
+        <v>35</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1.601</v>
+      </c>
+      <c r="D7" s="7">
+        <v>40.67</v>
+      </c>
+      <c r="E7" s="7">
+        <v>3.3719999999999999</v>
+      </c>
+      <c r="F7" s="7">
+        <v>85.66</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1.39</v>
+      </c>
+      <c r="H7" s="7">
+        <v>35.32</v>
+      </c>
+      <c r="I7" s="7">
+        <v>2.41</v>
+      </c>
+      <c r="J7" s="7">
+        <v>61.23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
         <v>135</v>
       </c>
-      <c r="B6">
+      <c r="B8" s="1">
         <v>35</v>
       </c>
-      <c r="C6">
+      <c r="C8" s="1">
         <v>1.5840000000000001</v>
       </c>
-      <c r="D6">
+      <c r="D8" s="1">
         <v>40.229999999999997</v>
       </c>
-      <c r="E6">
+      <c r="E8" s="1">
         <v>3.5950000000000002</v>
       </c>
-      <c r="F6">
+      <c r="F8" s="1">
         <v>91.32</v>
       </c>
-      <c r="G6">
+      <c r="G8" s="1">
         <v>1.4450000000000001</v>
       </c>
-      <c r="H6">
+      <c r="H8" s="1">
         <v>36.700000000000003</v>
       </c>
-      <c r="I6">
+      <c r="I8" s="1">
         <v>2.6080000000000001</v>
       </c>
-      <c r="J6">
+      <c r="J8" s="1">
         <v>66.239999999999995</v>
       </c>
     </row>
@@ -729,8 +900,6 @@
     <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>